--- a/biology/Neurosciences/Montréal_évaluation_de_la_communication/Montréal_évaluation_de_la_communication.xlsx
+++ b/biology/Neurosciences/Montréal_évaluation_de_la_communication/Montréal_évaluation_de_la_communication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Montr%C3%A9al_%C3%A9valuation_de_la_communication</t>
+          <t>Montréal_évaluation_de_la_communication</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Montréal évaluation de la communication (MEC) est un test neuropsychologique mis au point en 2004 par Joanette, Ska et Côté est un outil permettant une évaluation approfondie de la communication verbale des individus ayant une lésion cérébrale droite[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Montréal évaluation de la communication (MEC) est un test neuropsychologique mis au point en 2004 par Joanette, Ska et Côté est un outil permettant une évaluation approfondie de la communication verbale des individus ayant une lésion cérébrale droite,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Montr%C3%A9al_%C3%A9valuation_de_la_communication</t>
+          <t>Montréal_évaluation_de_la_communication</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Passation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce test est composé de 14 tâches qui servent à évaluer l’habileté de communication verbale du sujet. Elles cherchent à évaluer :
 Le discours conversationnel et le discours narratif (compréhension et rappel d'histoire).
